--- a/Bom Lists/myCPU_Full_BOM_List_Rounded.xlsx
+++ b/Bom Lists/myCPU_Full_BOM_List_Rounded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unedo365-my.sharepoint.com/personal/rhernande522_alumno_uned_es/Documents/Projects/Altium/myCPU/#Documents/BOM Files/Full BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{E30D8BD8-1E6C-47A4-8D8F-0CD9FC2A4BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22011C31-5D86-46FE-8230-11DDC0D543D9}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{E30D8BD8-1E6C-47A4-8D8F-0CD9FC2A4BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8178573E-747B-40B1-B463-E661EFE5A534}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16260" windowHeight="14475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="1200" windowWidth="28185" windowHeight="13965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICs" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Wire" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Components!$A$1:$C$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Components!$A$1:$C$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Connectors!$A$1:$C$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ICs!$A$1:$C$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Wire!$A$1:$C$13</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>Description</t>
   </si>
@@ -358,16 +358,19 @@
     <t>Pin Header, THT, pitch 2.54mm, Dual Row, Right Angled, 2x40</t>
   </si>
   <si>
-    <t>HeatSink for the 7805 14x18x10</t>
-  </si>
-  <si>
-    <t>7805 Voltage Regulator 5v / 1A</t>
-  </si>
-  <si>
     <t>LM7805</t>
   </si>
   <si>
     <t>220µF</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>7805 Voltage Regulator 5v / 1A TO-220F isolated</t>
+  </si>
+  <si>
+    <t>HeatSink for the 7805 14x18x10 mm or 14x18x6 mm</t>
   </si>
 </sst>
 </file>
@@ -796,6 +799,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
     </xf>
@@ -852,9 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,8 +1528,8 @@
   </sheetPr>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1537,31 +1540,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -2224,10 +2227,10 @@
     </row>
     <row r="31" spans="1:20" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="67">
         <v>15</v>
@@ -2601,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2615,31 +2618,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="74"/>
     </row>
     <row r="2" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="75"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="75"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="76"/>
     </row>
     <row r="4" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="75"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="76"/>
     </row>
     <row r="5" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
     </row>
     <row r="6" spans="1:41" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
@@ -2947,11 +2950,11 @@
       <c r="AO12" s="18"/>
     </row>
     <row r="13" spans="1:41" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="69" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" s="48">
         <v>15</v>
@@ -3494,13 +3497,13 @@
       <c r="AO25" s="18"/>
     </row>
     <row r="26" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="10">
+      <c r="B26" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="8">
         <v>10</v>
       </c>
       <c r="D26" s="18"/>
@@ -3543,14 +3546,14 @@
       <c r="AO26" s="18"/>
     </row>
     <row r="27" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="8">
-        <v>50</v>
+      <c r="B27" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10">
+        <v>10</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -3596,7 +3599,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C28" s="8">
         <v>50</v>
@@ -3641,14 +3644,14 @@
       <c r="AO28" s="18"/>
     </row>
     <row r="29" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>47</v>
+      <c r="A29" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C29" s="8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -3694,10 +3697,10 @@
         <v>47</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -3739,14 +3742,14 @@
       <c r="AO30" s="18"/>
     </row>
     <row r="31" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>15</v>
+      <c r="A31" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C31" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3788,14 +3791,14 @@
       <c r="AO31" s="18"/>
     </row>
     <row r="32" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>86</v>
+      <c r="A32" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C32" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -3836,67 +3839,67 @@
       <c r="AN32" s="18"/>
       <c r="AO32" s="18"/>
     </row>
-    <row r="33" spans="1:41" s="55" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-    </row>
-    <row r="34" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="33" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="8">
+        <v>10</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="18"/>
+      <c r="AN33" s="18"/>
+      <c r="AO33" s="18"/>
+    </row>
+    <row r="34" spans="1:41" s="55" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+    </row>
+    <row r="35" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="8">
-        <v>10</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
-      <c r="AO34" s="18"/>
-    </row>
-    <row r="35" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>10</v>
       </c>
       <c r="D35" s="18"/>
@@ -3940,13 +3943,13 @@
     </row>
     <row r="36" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="10">
         <v>10</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="10">
-        <v>5</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3989,11 +3992,13 @@
     </row>
     <row r="37" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="32"/>
+        <v>10</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="C37" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -4035,12 +4040,12 @@
       <c r="AO37" s="18"/>
     </row>
     <row r="38" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="14">
-        <v>5</v>
+      <c r="A38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="10">
+        <v>10</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -4081,64 +4086,62 @@
       <c r="AN38" s="18"/>
       <c r="AO38" s="18"/>
     </row>
-    <row r="39" spans="1:41" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="26">
-        <v>10</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
+    <row r="39" spans="1:41" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="14">
+        <v>5</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
     </row>
     <row r="40" spans="1:41" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C40" s="26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -4184,7 +4187,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="26">
         <v>6</v>
@@ -4228,95 +4231,101 @@
       <c r="AN41" s="19"/>
       <c r="AO41" s="19"/>
     </row>
-    <row r="42" spans="1:41" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60">
+    <row r="42" spans="1:41" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="26">
+        <v>6</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="19"/>
+    </row>
+    <row r="43" spans="1:41" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60">
         <v>15</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="61"/>
-      <c r="U42" s="61"/>
-      <c r="V42" s="61"/>
-      <c r="W42" s="61"/>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="61"/>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="61"/>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="61"/>
-      <c r="AF42" s="61"/>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="61"/>
-      <c r="AJ42" s="61"/>
-      <c r="AK42" s="61"/>
-      <c r="AL42" s="61"/>
-      <c r="AM42" s="61"/>
-      <c r="AN42" s="61"/>
-      <c r="AO42" s="61"/>
-    </row>
-    <row r="43" spans="1:41" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="19"/>
-      <c r="AN43" s="19"/>
-      <c r="AO43" s="19"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="61"/>
+      <c r="AO43" s="61"/>
     </row>
     <row r="44" spans="1:41" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
@@ -4533,48 +4542,48 @@
       <c r="AN48" s="19"/>
       <c r="AO48" s="19"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
+    <row r="49" spans="1:41" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
       <c r="B49" s="35"/>
       <c r="C49" s="26"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
-      <c r="AC49" s="15"/>
-      <c r="AD49" s="15"/>
-      <c r="AE49" s="15"/>
-      <c r="AF49" s="15"/>
-      <c r="AG49" s="15"/>
-      <c r="AH49" s="15"/>
-      <c r="AI49" s="15"/>
-      <c r="AJ49" s="15"/>
-      <c r="AK49" s="15"/>
-      <c r="AL49" s="15"/>
-      <c r="AM49" s="15"/>
-      <c r="AN49" s="15"/>
-      <c r="AO49" s="15"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="19"/>
+      <c r="AG49" s="19"/>
+      <c r="AH49" s="19"/>
+      <c r="AI49" s="19"/>
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="19"/>
+      <c r="AL49" s="19"/>
+      <c r="AM49" s="19"/>
+      <c r="AN49" s="19"/>
+      <c r="AO49" s="19"/>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
@@ -4791,6 +4800,49 @@
       <c r="AN54" s="15"/>
       <c r="AO54" s="15"/>
     </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="15"/>
+      <c r="AL55" s="15"/>
+      <c r="AM55" s="15"/>
+      <c r="AN55" s="15"/>
+      <c r="AO55" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C5"/>
@@ -4811,7 +4863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AA7E0F-2AB4-48AF-8B58-501ADFB0CB8D}">
   <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -4824,31 +4876,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
     </row>
     <row r="2" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
     </row>
     <row r="3" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
     </row>
     <row r="4" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
     </row>
     <row r="5" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
     </row>
     <row r="6" spans="1:41" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
@@ -5916,31 +5968,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
     </row>
     <row r="2" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
     </row>
     <row r="3" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
     </row>
     <row r="4" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
     </row>
     <row r="5" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
     </row>
     <row r="6" spans="1:41" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
